--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="5460"/>
   </bookViews>
   <sheets>
-    <sheet name="Constant selection" sheetId="1" r:id="rId1"/>
-    <sheet name="Random selection" sheetId="2" r:id="rId2"/>
+    <sheet name="Newest" sheetId="3" r:id="rId1"/>
+    <sheet name="Constant selection" sheetId="1" r:id="rId2"/>
+    <sheet name="Random selection" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Constant selection'!$A$3:$J$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Constant selection'!$A$3:$J$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Population size</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>Approx</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -388,10 +392,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5000</v>
+      </c>
+      <c r="B4">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E4">
+        <v>2.2880999999999999E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G4">
+        <v>3.9076E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="I4">
+        <v>3.9550000000000002E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5000</v>
+      </c>
+      <c r="B5">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E5">
+        <v>2.2905999999999999E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G5">
+        <v>3.9072999999999997E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="I5">
+        <v>3.9565000000000003E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5000</v>
+      </c>
+      <c r="B6">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>2.1252E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G6">
+        <v>5.0632000000000003E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="I6">
+        <v>5.1805999999999998E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E7">
+        <v>2.1752000000000001E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G7">
+        <v>5.1686000000000003E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="I7">
+        <v>5.2894999999999998E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5000</v>
+      </c>
+      <c r="B8">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E8">
+        <v>4.7720000000000002E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G8">
+        <v>3.0242999999999999E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="I8">
+        <v>3.3188000000000002E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5000</v>
+      </c>
+      <c r="B9">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.155E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G9">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="I9">
+        <v>6.7519999999999997E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5000</v>
+      </c>
+      <c r="B10">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E10">
+        <v>4.8194594721902799E-4</v>
+      </c>
+      <c r="F10">
+        <v>2.9969232390839898E-6</v>
+      </c>
+      <c r="G10">
+        <v>4.4229999999999998E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="I10">
+        <v>5.117E-3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5000</v>
+      </c>
+      <c r="B11">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C11">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <v>4.1200000000000004E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G11">
+        <v>2.5649999999999999E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="I11">
+        <v>2.7969999999999998E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J3" sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,10 +1745,22 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E47">
-        <v>2.2877009637206201E-2</v>
-      </c>
-      <c r="F47">
-        <v>7.4181704220865804E-6</v>
+        <v>2.2880999999999999E-2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G47">
+        <v>3.9076E-2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="I47">
+        <v>3.9550000000000002E-2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,16 +1771,28 @@
         <v>1.1999999999999999E-6</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D48" s="1">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E48">
-        <v>2.1263010481928499E-2</v>
-      </c>
-      <c r="F48">
-        <v>7.0501149497166902E-6</v>
+        <v>2.2905999999999999E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G48">
+        <v>3.9072999999999997E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="I48">
+        <v>3.9565000000000003E-2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -1432,13 +1806,25 @@
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="E49">
-        <v>4.7583412781373501E-3</v>
-      </c>
-      <c r="F49">
-        <v>7.0359105045374702E-6</v>
+        <v>2.1252E-2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G49">
+        <v>5.0632000000000003E-2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="I49">
+        <v>5.1805999999999998E-2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -1449,16 +1835,28 @@
         <v>1.1999999999999999E-6</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="E50">
-        <v>4.8194594721902799E-4</v>
-      </c>
-      <c r="F50">
-        <v>2.9969232390839898E-6</v>
+        <v>2.1752000000000001E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G50">
+        <v>5.1686000000000003E-2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="I50">
+        <v>5.2894999999999998E-2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -1471,158 +1869,286 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51">
-        <v>0.1</v>
+      <c r="D51" s="1">
+        <v>1E-3</v>
       </c>
       <c r="E51">
-        <v>4.7735124145846397E-5</v>
-      </c>
-      <c r="F51">
-        <v>3.1537204970038599E-7</v>
+        <v>4.7720000000000002E-3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G51">
+        <v>3.0242999999999999E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="I51">
+        <v>3.3188000000000002E-2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>750</v>
-      </c>
-      <c r="B52" s="1">
-        <v>7.9999999999999996E-6</v>
+        <v>5000</v>
+      </c>
+      <c r="B52">
+        <v>1.1999999999999999E-6</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>6.6666599999999996E-3</v>
+        <v>3000</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1E-3</v>
       </c>
       <c r="E52">
-        <v>4.7800000000000004E-3</v>
+        <v>1.155E-2</v>
       </c>
       <c r="F52" s="1">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G52">
-        <v>4.0129999999999999E-2</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="H52" s="1">
-        <v>6.9999999999999994E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="I52">
-        <v>4.5620000000000001E-2</v>
+        <v>6.7519999999999997E-2</v>
       </c>
       <c r="J52" s="1">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="K52">
-        <v>0.04</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>750</v>
-      </c>
-      <c r="B53" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B53">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E53">
+        <v>4.8194594721902799E-4</v>
+      </c>
+      <c r="F53">
+        <v>2.9969232390839898E-6</v>
+      </c>
+      <c r="G53">
+        <v>4.4229999999999998E-3</v>
+      </c>
+      <c r="H53" s="1">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="C53">
-        <v>3000</v>
-      </c>
-      <c r="D53">
-        <v>6.6666599999999996E-3</v>
-      </c>
-      <c r="E53">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F53" s="1">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G53">
-        <v>8.5269999999999999E-2</v>
-      </c>
-      <c r="H53" s="1">
-        <v>6.9999999999999994E-5</v>
-      </c>
       <c r="I53">
-        <v>9.3939999999999996E-2</v>
+        <v>5.117E-3</v>
       </c>
       <c r="J53" s="1">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="K53">
-        <v>7.4999999999999997E-2</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1000</v>
-      </c>
-      <c r="B54" s="1">
-        <v>6.0000000000000002E-6</v>
+        <v>5000</v>
+      </c>
+      <c r="B54">
+        <v>1.1999999999999999E-6</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>5.0000000000000001E-3</v>
+        <v>3000</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.01</v>
       </c>
       <c r="E54">
-        <v>4.7800000000000004E-3</v>
+        <v>4.1200000000000004E-3</v>
       </c>
       <c r="F54" s="1">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G54">
-        <v>3.8129999999999997E-2</v>
+        <v>2.5649999999999999E-2</v>
       </c>
       <c r="H54" s="1">
-        <v>6.9999999999999994E-5</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="I54">
-        <v>4.3200000000000002E-2</v>
+        <v>2.7969999999999998E-2</v>
       </c>
       <c r="J54" s="1">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="K54">
-        <v>0.04</v>
+        <v>5.0000000000000004E-6</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>5000</v>
+      </c>
+      <c r="B55">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0.1</v>
+      </c>
+      <c r="E55">
+        <v>4.7735124145846397E-5</v>
+      </c>
+      <c r="F55">
+        <v>3.1537204970038599E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>750</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>6.6666599999999996E-3</v>
+      </c>
+      <c r="E56">
+        <v>4.7800000000000004E-3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G56">
+        <v>4.0129999999999999E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="I56">
+        <v>4.5620000000000001E-2</v>
+      </c>
+      <c r="J56" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="K56">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>750</v>
+      </c>
+      <c r="B57" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C57">
+        <v>3000</v>
+      </c>
+      <c r="D57">
+        <v>6.6666599999999996E-3</v>
+      </c>
+      <c r="E57">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G57">
+        <v>8.5269999999999999E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="I57">
+        <v>9.3939999999999996E-2</v>
+      </c>
+      <c r="J57" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="K57">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>1000</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B58" s="1">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="C55">
-        <v>3000</v>
-      </c>
-      <c r="D55">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E55">
+      <c r="E58">
+        <v>4.7800000000000004E-3</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G58">
+        <v>3.8129999999999997E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="I58">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="J58" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="K58">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1000</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C59">
+        <v>3000</v>
+      </c>
+      <c r="D59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E59">
         <v>1.299E-2</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F59" s="1">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G55">
+      <c r="G59">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H59" s="1">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="I55">
+      <c r="I59">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J59" s="1">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="K55">
+      <c r="K59">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J51">
+  <autoFilter ref="A3:J55">
     <sortState ref="A4:J48">
       <sortCondition ref="A3:A48"/>
     </sortState>
@@ -1631,7 +2157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
